--- a/Hardware/Pro/Requirements.xlsx
+++ b/Hardware/Pro/Requirements.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5400" yWindow="2700" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
     <sheet name="STM32F303RET6" sheetId="1" r:id="rId2"/>
+    <sheet name="DMA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="178">
   <si>
     <t>Pin</t>
   </si>
@@ -388,9 +389,6 @@
     <t xml:space="preserve">I2C3_SDA </t>
   </si>
   <si>
-    <t xml:space="preserve">I2C1_SCL </t>
-  </si>
-  <si>
     <t>I2C1_SDA</t>
   </si>
   <si>
@@ -430,7 +428,133 @@
     <t>Bluetooth</t>
   </si>
   <si>
-    <t>SPI1</t>
+    <t>float</t>
+  </si>
+  <si>
+    <t>uint8_t</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>uint16_t</t>
+  </si>
+  <si>
+    <t>uint32_t</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>DMA1_CHANNEL1</t>
+  </si>
+  <si>
+    <t>DMA1_CHANNEL2</t>
+  </si>
+  <si>
+    <t>DMA1_CHANNEL3</t>
+  </si>
+  <si>
+    <t>DMA1_CHANNEL4</t>
+  </si>
+  <si>
+    <t>DMA1_CHANNEL5</t>
+  </si>
+  <si>
+    <t>DMA1_CHANNEL6</t>
+  </si>
+  <si>
+    <t>DMA1_CHANNEL7</t>
+  </si>
+  <si>
+    <t>DMA2_CHANNEL1</t>
+  </si>
+  <si>
+    <t>DMA2_CHANNEL2</t>
+  </si>
+  <si>
+    <t>DMA2_CHANNEL3</t>
+  </si>
+  <si>
+    <t>DMA2_CHANNEL4</t>
+  </si>
+  <si>
+    <t>I2C3_TX</t>
+  </si>
+  <si>
+    <t>I2C3_RX</t>
+  </si>
+  <si>
+    <t>SPI1_RX</t>
+  </si>
+  <si>
+    <t>SPI1_TX</t>
+  </si>
+  <si>
+    <t>SPI2_RX</t>
+  </si>
+  <si>
+    <t>I2C2_TX</t>
+  </si>
+  <si>
+    <t>SPI2_TX</t>
+  </si>
+  <si>
+    <t>I2C2_RX</t>
+  </si>
+  <si>
+    <t>I2C1_TX</t>
+  </si>
+  <si>
+    <t>I2C1_RX</t>
+  </si>
+  <si>
+    <t>TX,RX</t>
+  </si>
+  <si>
+    <t>SPI3_RX</t>
+  </si>
+  <si>
+    <t>SPI3_TX</t>
+  </si>
+  <si>
+    <t>DMA2_CHANNEL5</t>
+  </si>
+  <si>
+    <t>SPI4_RX</t>
+  </si>
+  <si>
+    <t>SPI4_TX</t>
+  </si>
+  <si>
+    <t>USART1 (Telemetry)</t>
+  </si>
+  <si>
+    <t>SPI (MicroSD)</t>
+  </si>
+  <si>
+    <t>SPI (Flash)</t>
+  </si>
+  <si>
+    <t>SPI (BLE)</t>
+  </si>
+  <si>
+    <t>I2C2 (Telemetry)</t>
+  </si>
+  <si>
+    <t>UART4_TX</t>
+  </si>
+  <si>
+    <t>USART2 (FC)</t>
+  </si>
+  <si>
+    <t>UART4 (OSD)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +688,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -624,8 +748,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,8 +796,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="73">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -689,6 +828,13 @@
     <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -718,6 +864,13 @@
     <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1190,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1256,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1264,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -1289,7 +1442,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1312,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1331,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1347,10 +1500,10 @@
         <v>11</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1369,7 +1522,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1404,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1417,7 +1570,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="I13" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>7</v>
@@ -1439,7 +1592,7 @@
         <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1453,13 +1606,13 @@
       <c r="D15" s="22"/>
       <c r="E15" s="2"/>
       <c r="I15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1473,10 +1626,10 @@
       <c r="D16" s="22"/>
       <c r="E16" s="2"/>
       <c r="I16" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1493,10 +1646,10 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="I17" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1780,7 +1933,7 @@
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1887,7 +2040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1895,7 +2048,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:15">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -1913,7 +2066,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:15">
       <c r="A51" s="27">
         <v>50</v>
       </c>
@@ -1933,7 +2086,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:15">
       <c r="A52" s="26">
         <v>51</v>
       </c>
@@ -1951,7 +2104,7 @@
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:15">
       <c r="A53" s="26">
         <v>52</v>
       </c>
@@ -1969,7 +2122,7 @@
       </c>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1983,7 +2136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1994,7 +2147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:15">
       <c r="A56" s="27">
         <v>55</v>
       </c>
@@ -2011,10 +2164,20 @@
         <v>34</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="M56" t="s">
+        <v>136</v>
+      </c>
+      <c r="N56">
+        <v>12</v>
+      </c>
+      <c r="O56">
+        <f>N56*1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="27">
         <v>56</v>
       </c>
@@ -2031,8 +2194,18 @@
         <v>35</v>
       </c>
       <c r="F57" s="28"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="M57" t="s">
+        <v>135</v>
+      </c>
+      <c r="N57">
+        <v>13</v>
+      </c>
+      <c r="O57">
+        <f>N57*4</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="27">
         <v>57</v>
       </c>
@@ -2049,48 +2222,83 @@
       <c r="F58" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="17">
+      <c r="M58" t="s">
+        <v>137</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58">
+        <f>N58*4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="32">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M59" t="s">
+        <v>138</v>
+      </c>
+      <c r="N59">
+        <f>2+1*16+1*24</f>
+        <v>42</v>
+      </c>
+      <c r="O59">
+        <f>N59*2</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="32">
+        <v>59</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="17">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="M60" t="s">
+        <v>139</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <f>N60*4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="O61">
+        <f>SUM(O56:O60)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -2108,7 +2316,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:15">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -2123,10 +2331,10 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2153,4 +2361,211 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Hardware/Pro/Requirements.xlsx
+++ b/Hardware/Pro/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2700" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="37660" windowHeight="23560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -2561,7 +2561,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Hardware/Pro/Requirements.xlsx
+++ b/Hardware/Pro/Requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="37660" windowHeight="23560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-27420" yWindow="920" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="185">
   <si>
     <t>Pin</t>
   </si>
@@ -555,6 +555,27 @@
   </si>
   <si>
     <t>UART4 (OSD)</t>
+  </si>
+  <si>
+    <t>PackGPS</t>
+  </si>
+  <si>
+    <t>PackAttitude</t>
+  </si>
+  <si>
+    <t>PackBatteryPack</t>
+  </si>
+  <si>
+    <t>PackHeartbeat</t>
+  </si>
+  <si>
+    <t>PackRCOut</t>
+  </si>
+  <si>
+    <t>PackSystemStatus</t>
+  </si>
+  <si>
+    <t>PackVFRHud</t>
   </si>
 </sst>
 </file>
@@ -688,8 +709,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -798,7 +857,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="111">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -835,6 +894,25 @@
     <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -871,6 +949,25 @@
     <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1346,7 +1443,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2365,19 +2462,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -2391,7 +2489,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -2399,7 +2497,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -2419,7 +2517,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2436,7 +2534,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -2456,7 +2554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -2476,7 +2574,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -2493,7 +2591,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -2510,7 +2608,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -2524,7 +2622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -2532,7 +2630,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -2540,7 +2638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -2548,7 +2646,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -2558,9 +2656,121 @@
       <c r="C13" t="s">
         <v>175</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13">
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13">
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13">
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13">
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20">
+        <v>400</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13">
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13">
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
